--- a/po_analysis_by_asin/B0CJ9VSCVF_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJ9VSCVF_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,95 +452,95 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>780</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45355</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>860</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45362</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>840</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45439</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>320</v>
+        <v>860</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45446</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>280</v>
@@ -548,57 +548,89 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45474</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>720</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45502</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>1240</v>
+        <v>840</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45509</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45516</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>520</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45551</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45558</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>840</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45565</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B20" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>200</v>
       </c>
     </row>
@@ -613,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,15 +667,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1800</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>60</v>
@@ -651,65 +683,89 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>840</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>280</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1480</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1040</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1520</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>200</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CJ9VSCVF_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJ9VSCVF_po_data.xlsx
@@ -535,7 +535,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>860</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13">
@@ -543,7 +543,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
@@ -710,7 +710,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1160</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8">

--- a/po_analysis_by_asin/B0CJ9VSCVF_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJ9VSCVF_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -767,6 +768,481 @@
       </c>
       <c r="B14" t="n">
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-269.9121718468795</v>
+      </c>
+      <c r="D2" t="n">
+        <v>450.7108968157847</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>106</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-253.0073152950982</v>
+      </c>
+      <c r="D3" t="n">
+        <v>482.5497989747831</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>117</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-234.8178634005335</v>
+      </c>
+      <c r="D4" t="n">
+        <v>481.837404987615</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>148</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-230.9312956558949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>481.2698246674684</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>233</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-125.0656076614511</v>
+      </c>
+      <c r="D6" t="n">
+        <v>623.9619983065046</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>244</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-122.3951231354813</v>
+      </c>
+      <c r="D7" t="n">
+        <v>608.8868884022197</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>254</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-108.1521709970343</v>
+      </c>
+      <c r="D8" t="n">
+        <v>631.5093184156981</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>265</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-102.4570312947978</v>
+      </c>
+      <c r="D9" t="n">
+        <v>636.5197498656981</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>275</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-56.08417083677161</v>
+      </c>
+      <c r="D10" t="n">
+        <v>630.7405549572914</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>286</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-79.10122397855098</v>
+      </c>
+      <c r="D11" t="n">
+        <v>627.086816485435</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>328</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-31.56316329364366</v>
+      </c>
+      <c r="D12" t="n">
+        <v>682.492502647866</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>339</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-27.61909139294445</v>
+      </c>
+      <c r="D13" t="n">
+        <v>709.6859991285685</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>349</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8777824878078072</v>
+      </c>
+      <c r="D14" t="n">
+        <v>743.4685363059863</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>371</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29.49809877743871</v>
+      </c>
+      <c r="D15" t="n">
+        <v>734.4673187249846</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>455</v>
+      </c>
+      <c r="C16" t="n">
+        <v>94.76202146061573</v>
+      </c>
+      <c r="D16" t="n">
+        <v>821.3871766766219</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>466</v>
+      </c>
+      <c r="C17" t="n">
+        <v>115.1225989911782</v>
+      </c>
+      <c r="D17" t="n">
+        <v>818.9609212197529</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>508</v>
+      </c>
+      <c r="C18" t="n">
+        <v>157.3434598926093</v>
+      </c>
+      <c r="D18" t="n">
+        <v>885.2568304766758</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>551</v>
+      </c>
+      <c r="C19" t="n">
+        <v>193.8747047985334</v>
+      </c>
+      <c r="D19" t="n">
+        <v>911.0079423146054</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>561</v>
+      </c>
+      <c r="C20" t="n">
+        <v>215.1902824614369</v>
+      </c>
+      <c r="D20" t="n">
+        <v>927.7466040305758</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>572</v>
+      </c>
+      <c r="C21" t="n">
+        <v>220.317990754272</v>
+      </c>
+      <c r="D21" t="n">
+        <v>943.0646026983825</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>625</v>
+      </c>
+      <c r="C22" t="n">
+        <v>259.4760838903588</v>
+      </c>
+      <c r="D22" t="n">
+        <v>980.8774764163805</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>635</v>
+      </c>
+      <c r="C23" t="n">
+        <v>274.735116415907</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1007.044943942112</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>646</v>
+      </c>
+      <c r="C24" t="n">
+        <v>280.185304473681</v>
+      </c>
+      <c r="D24" t="n">
+        <v>993.7932636154964</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>656</v>
+      </c>
+      <c r="C25" t="n">
+        <v>311.3513437227781</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1028.930576661628</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>667</v>
+      </c>
+      <c r="C26" t="n">
+        <v>324.4456211426951</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1034.998561968919</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>678</v>
+      </c>
+      <c r="C27" t="n">
+        <v>326.33982017944</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1031.818909447295</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>688</v>
+      </c>
+      <c r="C28" t="n">
+        <v>314.4115951749717</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1039.255679124455</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>699</v>
+      </c>
+      <c r="C29" t="n">
+        <v>369.7012751559806</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1068.206674666646</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>709</v>
+      </c>
+      <c r="C30" t="n">
+        <v>349.3407671356542</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1089.914721680137</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>720</v>
+      </c>
+      <c r="C31" t="n">
+        <v>357.8034280265288</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1090.33440384236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>731</v>
+      </c>
+      <c r="C32" t="n">
+        <v>377.6032386948386</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1089.662797263761</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CJ9VSCVF_po_data.xlsx
+++ b/po_analysis_by_asin/B0CJ9VSCVF_po_data.xlsx
@@ -781,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,16 +800,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -818,12 +808,6 @@
       <c r="B2" t="n">
         <v>85</v>
       </c>
-      <c r="C2" t="n">
-        <v>-269.9121718468795</v>
-      </c>
-      <c r="D2" t="n">
-        <v>450.7108968157847</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -832,12 +816,6 @@
       <c r="B3" t="n">
         <v>106</v>
       </c>
-      <c r="C3" t="n">
-        <v>-253.0073152950982</v>
-      </c>
-      <c r="D3" t="n">
-        <v>482.5497989747831</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -846,12 +824,6 @@
       <c r="B4" t="n">
         <v>117</v>
       </c>
-      <c r="C4" t="n">
-        <v>-234.8178634005335</v>
-      </c>
-      <c r="D4" t="n">
-        <v>481.837404987615</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -860,12 +832,6 @@
       <c r="B5" t="n">
         <v>148</v>
       </c>
-      <c r="C5" t="n">
-        <v>-230.9312956558949</v>
-      </c>
-      <c r="D5" t="n">
-        <v>481.2698246674684</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -874,12 +840,6 @@
       <c r="B6" t="n">
         <v>233</v>
       </c>
-      <c r="C6" t="n">
-        <v>-125.0656076614511</v>
-      </c>
-      <c r="D6" t="n">
-        <v>623.9619983065046</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -888,12 +848,6 @@
       <c r="B7" t="n">
         <v>244</v>
       </c>
-      <c r="C7" t="n">
-        <v>-122.3951231354813</v>
-      </c>
-      <c r="D7" t="n">
-        <v>608.8868884022197</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -902,12 +856,6 @@
       <c r="B8" t="n">
         <v>254</v>
       </c>
-      <c r="C8" t="n">
-        <v>-108.1521709970343</v>
-      </c>
-      <c r="D8" t="n">
-        <v>631.5093184156981</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -916,12 +864,6 @@
       <c r="B9" t="n">
         <v>265</v>
       </c>
-      <c r="C9" t="n">
-        <v>-102.4570312947978</v>
-      </c>
-      <c r="D9" t="n">
-        <v>636.5197498656981</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -930,12 +872,6 @@
       <c r="B10" t="n">
         <v>275</v>
       </c>
-      <c r="C10" t="n">
-        <v>-56.08417083677161</v>
-      </c>
-      <c r="D10" t="n">
-        <v>630.7405549572914</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -944,12 +880,6 @@
       <c r="B11" t="n">
         <v>286</v>
       </c>
-      <c r="C11" t="n">
-        <v>-79.10122397855098</v>
-      </c>
-      <c r="D11" t="n">
-        <v>627.086816485435</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -958,12 +888,6 @@
       <c r="B12" t="n">
         <v>328</v>
       </c>
-      <c r="C12" t="n">
-        <v>-31.56316329364366</v>
-      </c>
-      <c r="D12" t="n">
-        <v>682.492502647866</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -972,12 +896,6 @@
       <c r="B13" t="n">
         <v>339</v>
       </c>
-      <c r="C13" t="n">
-        <v>-27.61909139294445</v>
-      </c>
-      <c r="D13" t="n">
-        <v>709.6859991285685</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -986,12 +904,6 @@
       <c r="B14" t="n">
         <v>349</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.8777824878078072</v>
-      </c>
-      <c r="D14" t="n">
-        <v>743.4685363059863</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1000,12 +912,6 @@
       <c r="B15" t="n">
         <v>371</v>
       </c>
-      <c r="C15" t="n">
-        <v>29.49809877743871</v>
-      </c>
-      <c r="D15" t="n">
-        <v>734.4673187249846</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1014,12 +920,6 @@
       <c r="B16" t="n">
         <v>455</v>
       </c>
-      <c r="C16" t="n">
-        <v>94.76202146061573</v>
-      </c>
-      <c r="D16" t="n">
-        <v>821.3871766766219</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1028,12 +928,6 @@
       <c r="B17" t="n">
         <v>466</v>
       </c>
-      <c r="C17" t="n">
-        <v>115.1225989911782</v>
-      </c>
-      <c r="D17" t="n">
-        <v>818.9609212197529</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1042,12 +936,6 @@
       <c r="B18" t="n">
         <v>508</v>
       </c>
-      <c r="C18" t="n">
-        <v>157.3434598926093</v>
-      </c>
-      <c r="D18" t="n">
-        <v>885.2568304766758</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1056,12 +944,6 @@
       <c r="B19" t="n">
         <v>551</v>
       </c>
-      <c r="C19" t="n">
-        <v>193.8747047985334</v>
-      </c>
-      <c r="D19" t="n">
-        <v>911.0079423146054</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1070,12 +952,6 @@
       <c r="B20" t="n">
         <v>561</v>
       </c>
-      <c r="C20" t="n">
-        <v>215.1902824614369</v>
-      </c>
-      <c r="D20" t="n">
-        <v>927.7466040305758</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1084,12 +960,6 @@
       <c r="B21" t="n">
         <v>572</v>
       </c>
-      <c r="C21" t="n">
-        <v>220.317990754272</v>
-      </c>
-      <c r="D21" t="n">
-        <v>943.0646026983825</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1098,12 +968,6 @@
       <c r="B22" t="n">
         <v>625</v>
       </c>
-      <c r="C22" t="n">
-        <v>259.4760838903588</v>
-      </c>
-      <c r="D22" t="n">
-        <v>980.8774764163805</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1112,12 +976,6 @@
       <c r="B23" t="n">
         <v>635</v>
       </c>
-      <c r="C23" t="n">
-        <v>274.735116415907</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1007.044943942112</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1126,12 +984,6 @@
       <c r="B24" t="n">
         <v>646</v>
       </c>
-      <c r="C24" t="n">
-        <v>280.185304473681</v>
-      </c>
-      <c r="D24" t="n">
-        <v>993.7932636154964</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1140,12 +992,6 @@
       <c r="B25" t="n">
         <v>656</v>
       </c>
-      <c r="C25" t="n">
-        <v>311.3513437227781</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1028.930576661628</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1154,12 +1000,6 @@
       <c r="B26" t="n">
         <v>667</v>
       </c>
-      <c r="C26" t="n">
-        <v>324.4456211426951</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1034.998561968919</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1168,12 +1008,6 @@
       <c r="B27" t="n">
         <v>678</v>
       </c>
-      <c r="C27" t="n">
-        <v>326.33982017944</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1031.818909447295</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1182,12 +1016,6 @@
       <c r="B28" t="n">
         <v>688</v>
       </c>
-      <c r="C28" t="n">
-        <v>314.4115951749717</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1039.255679124455</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1196,12 +1024,6 @@
       <c r="B29" t="n">
         <v>699</v>
       </c>
-      <c r="C29" t="n">
-        <v>369.7012751559806</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1068.206674666646</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1210,12 +1032,6 @@
       <c r="B30" t="n">
         <v>709</v>
       </c>
-      <c r="C30" t="n">
-        <v>349.3407671356542</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1089.914721680137</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1224,12 +1040,6 @@
       <c r="B31" t="n">
         <v>720</v>
       </c>
-      <c r="C31" t="n">
-        <v>357.8034280265288</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1090.33440384236</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1237,12 +1047,6 @@
       </c>
       <c r="B32" t="n">
         <v>731</v>
-      </c>
-      <c r="C32" t="n">
-        <v>377.6032386948386</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1089.662797263761</v>
       </c>
     </row>
   </sheetData>
